--- a/data/trans_orig/P78_n_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7993F7A-5234-4CB8-A028-A2F4E6BDF519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4AA3746-7936-4CC9-B1C1-23478792D312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A0DB39D-E2F9-4174-A8E9-F432DE47FB48}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77046713-C6CD-40FD-96F8-68B86988101D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8D85DE-4992-4B9B-A8AB-6BA10F22A165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2C9842-56AA-46D8-9F7D-46596E779528}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2509,7 +2509,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>
@@ -2560,7 +2560,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>17</v>
@@ -2593,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53132DCF-A7D5-4C3B-867E-8451050D33D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF1702F-A202-4A07-A096-18745A540954}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4160,7 +4160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3409763F-EEE2-411F-8C7C-8A57488923D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AE043C-2730-4806-9B30-53B2C2739685}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5727,7 +5727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658BD25F-FFE7-42F4-B6FE-49DEAB5B9503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD99FAD5-BDF3-4E89-BFAD-56AAF4CAE25D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P78_n_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4AA3746-7936-4CC9-B1C1-23478792D312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{432AF045-2D3C-4B85-8D79-59D493A58B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77046713-C6CD-40FD-96F8-68B86988101D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39B95FFE-FFA5-48A5-859E-EA39224E977B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -185,7 +185,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>Población según número de retrasos en pagos en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según número de retrasos en pagos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -224,10 +224,7 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>0,26%</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -236,385 +233,388 @@
     <t>0,53%</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>3,18%</t>
+    <t>2,32%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>88,45%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>88,3%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2C9842-56AA-46D8-9F7D-46596E779528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3509A650-0075-4422-AD67-554B22B4A018}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1761,7 +1761,7 @@
         <v>1649</v>
       </c>
       <c r="D16" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>15</v>
@@ -1812,7 +1812,7 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -2479,7 +2479,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>15</v>
@@ -2530,7 +2530,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>17</v>
@@ -2593,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF1702F-A202-4A07-A096-18745A540954}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7D847A-76F6-4032-A12B-54AE09F94C9B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4160,7 +4160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AE043C-2730-4806-9B30-53B2C2739685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C429AFCF-F012-4F05-AD52-BD279F8C83EB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5727,7 +5727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD99FAD5-BDF3-4E89-BFAD-56AAF4CAE25D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E33EBC2-0383-4737-BB4C-49C33B83E324}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5872,7 +5872,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5887,7 +5887,7 @@
         <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5917,13 @@
         <v>1414</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5938,7 +5938,7 @@
         <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,7 +5959,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5968,13 +5968,13 @@
         <v>1434</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5989,7 +5989,7 @@
         <v>53</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6004,13 @@
         <v>25523</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -6019,13 +6019,13 @@
         <v>36571</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M7" s="7">
         <v>82</v>
@@ -6034,13 +6034,13 @@
         <v>62094</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6055,13 @@
         <v>50970</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>157</v>
@@ -6070,13 +6070,13 @@
         <v>102018</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M8" s="7">
         <v>218</v>
@@ -6085,13 +6085,13 @@
         <v>152988</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6106,13 @@
         <v>459312</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H9" s="7">
         <v>1201</v>
@@ -6121,13 +6121,13 @@
         <v>685013</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M9" s="7">
         <v>1798</v>
@@ -6136,13 +6136,13 @@
         <v>1144324</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,7 +6231,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -6240,13 +6240,13 @@
         <v>729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,7 +6282,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6312,13 @@
         <v>9084</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -6327,13 +6327,13 @@
         <v>5365</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -6342,10 +6342,10 @@
         <v>14449</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>106</v>
@@ -6471,7 +6471,7 @@
         <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>2603</v>
@@ -6480,13 +6480,13 @@
         <v>1972788</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>4328</v>
@@ -6495,13 +6495,13 @@
         <v>3820483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,7 +6605,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,7 +6707,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,10 +6725,10 @@
         <v>136</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -6737,13 +6737,13 @@
         <v>5986</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -6752,13 +6752,13 @@
         <v>13252</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6773,13 @@
         <v>29347</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -6788,13 +6788,13 @@
         <v>36193</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -6803,13 +6803,13 @@
         <v>65540</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6824,13 @@
         <v>631378</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>945</v>
@@ -6839,13 +6839,13 @@
         <v>661661</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>1589</v>
@@ -6854,13 +6854,13 @@
         <v>1293039</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,7 +6943,7 @@
         <v>1425</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
@@ -6958,13 +6958,13 @@
         <v>1425</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,10 +6997,10 @@
         <v>22</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -7012,10 +7012,10 @@
         <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7030,13 @@
         <v>10075</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -7051,7 +7051,7 @@
         <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -7060,13 +7060,13 @@
         <v>16873</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>165</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,10 +7114,10 @@
         <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
